--- a/chapter 3/VLookup.xlsx
+++ b/chapter 3/VLookup.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Writing\Lynda\Excel 2019 Intro to F&amp;Fs\Exercise Files\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5E8A0A-95A6-485A-BB95-A2249ECD6D1A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C27760-8064-AA47-BCEB-601DED6E9553}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,21 +439,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>123</v>
       </c>
@@ -477,8 +477,11 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>126</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>124</v>
       </c>
@@ -491,8 +494,12 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(F2,Customers[],2,TRUE)</f>
+        <v>Rotero</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>125</v>
       </c>
@@ -503,7 +510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>126</v>
       </c>
@@ -514,7 +521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>127</v>
       </c>
